--- a/Flori_Stunden.xlsx
+++ b/Flori_Stunden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Heroes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979F9B3F-6523-4E60-AE74-EF3DCD7CC14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F1F52B-97FA-4A0E-85AB-5C4AB40206AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{616CFCC2-B679-490F-A1E7-AC47DADC068B}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,7 +516,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" ref="D7:D32" si="0">(C7-B7)*24</f>
+        <f t="shared" ref="D7:D33" si="0">(C7-B7)*24</f>
         <v>4.5</v>
       </c>
     </row>
@@ -896,16 +896,27 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33"/>
+      <c r="A33" s="2">
+        <v>45479</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999911</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="4">
-        <f>SUM(D6:D32)</f>
-        <v>66</v>
+        <f>SUM(D6:D33)</f>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Flori_Stunden.xlsx
+++ b/Flori_Stunden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Heroes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F1F52B-97FA-4A0E-85AB-5C4AB40206AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F760065D-0BF0-4A2F-BA84-23F306C760C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{616CFCC2-B679-490F-A1E7-AC47DADC068B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{616CFCC2-B679-490F-A1E7-AC47DADC068B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -437,18 +437,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC58C6-7204-4220-AE26-FB275B1F8971}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -456,13 +456,13 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -470,13 +470,13 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>45273</v>
       </c>
@@ -505,7 +505,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>45274</v>
       </c>
@@ -516,11 +516,11 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" ref="D7:D33" si="0">(C7-B7)*24</f>
+        <f t="shared" ref="D7:D34" si="0">(C7-B7)*24</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>45276</v>
       </c>
@@ -535,7 +535,7 @@
         <v>1.0000000000000018</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>45277</v>
       </c>
@@ -550,7 +550,7 @@
         <v>0.99999999999999911</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>45288</v>
       </c>
@@ -565,7 +565,7 @@
         <v>4.0000000000000018</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>45289</v>
       </c>
@@ -580,7 +580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>45290</v>
       </c>
@@ -595,7 +595,7 @@
         <v>0.99999999999999911</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>45291</v>
       </c>
@@ -610,7 +610,7 @@
         <v>0.99999999999999911</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>45296</v>
       </c>
@@ -625,7 +625,7 @@
         <v>0.99999999999999911</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>45304</v>
       </c>
@@ -640,7 +640,7 @@
         <v>1.0000000000000018</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>45328</v>
       </c>
@@ -655,7 +655,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>45329</v>
       </c>
@@ -670,7 +670,7 @@
         <v>2.0000000000000009</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>45330</v>
       </c>
@@ -685,7 +685,7 @@
         <v>0.99999999999999911</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>45333</v>
       </c>
@@ -700,7 +700,7 @@
         <v>1.9999999999999982</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>45356</v>
       </c>
@@ -715,7 +715,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>45357</v>
       </c>
@@ -730,7 +730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>45375</v>
       </c>
@@ -745,7 +745,7 @@
         <v>0.99999999999999911</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>45376</v>
       </c>
@@ -760,7 +760,7 @@
         <v>2.4999999999999991</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>45385</v>
       </c>
@@ -775,7 +775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>45386</v>
       </c>
@@ -790,7 +790,7 @@
         <v>1.0000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>45387</v>
       </c>
@@ -805,7 +805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>45388</v>
       </c>
@@ -820,7 +820,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>45390</v>
       </c>
@@ -835,7 +835,7 @@
         <v>3.4999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>45391</v>
       </c>
@@ -850,7 +850,7 @@
         <v>2.0000000000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>45392</v>
       </c>
@@ -865,7 +865,7 @@
         <v>3.5000000000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>45393</v>
       </c>
@@ -880,7 +880,7 @@
         <v>0.99999999999999911</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>45426</v>
       </c>
@@ -895,7 +895,7 @@
         <v>1.9999999999999982</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>45479</v>
       </c>
@@ -910,13 +910,40 @@
         <v>0.99999999999999911</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
+        <v>45569</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>6.9999999999999991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="4">
-        <f>SUM(D6:D33)</f>
-        <v>67</v>
+      <c r="D37" s="4">
+        <f>SUM(D6:D34)</f>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
